--- a/BOM/V2_PROPOSED_bom_USB_HUB_ADAPTER..xlsx
+++ b/BOM/V2_PROPOSED_bom_USB_HUB_ADAPTER..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\OCTOBERT_22_projects\USB_HUB_ADAPTER\USB_HUB_ADAPTER\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1D6FBD9-07CF-4A77-B5C2-2D80F339901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1A0658DC-2F6E-4F27-884B-FF3D2B0084C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="635" uniqueCount="389">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="636" uniqueCount="390">
   <si>
     <t>Qty</t>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t>TF-115-BCP9</t>
+  </si>
+  <si>
+    <t>PJ-327C-4A</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2154,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4212,6 +4215,9 @@
         <f t="shared" si="0"/>
         <v>0.11650000000000001</v>
       </c>
+      <c r="I59" s="16" t="s">
+        <v>389</v>
+      </c>
       <c r="J59" s="7">
         <v>0.11650000000000001</v>
       </c>
@@ -6443,8 +6449,9 @@
     <hyperlink ref="I54" r:id="rId2" display="https://lcsc.com/product-detail/span-style-background-color-ff0-SD-span-span-style-background-color-ff0-Card-span-Connectors_XUNPU-TF-115-BCP9_C720505.html" xr:uid="{5A25AA73-84A4-4179-8648-1E4B3B841E35}"/>
     <hyperlink ref="K54" r:id="rId3" xr:uid="{1B94AF1C-6524-473C-9F24-AA5D56EA15D7}"/>
     <hyperlink ref="I61" r:id="rId4" display="https://lcsc.com/product-detail/Power-Inductors_Sunlord-MWSA1004S-100MT_C408487.html" xr:uid="{D8D47495-179E-4062-B915-8DEDFA9E54E0}"/>
+    <hyperlink ref="I59" r:id="rId5" display="https://lcsc.com/product-detail/Audio-Connectors_Korean-Hroparts-Elec-PJ-327C-4A_C145813.html" xr:uid="{B2EBD768-7236-439F-BA2A-51155E44AF1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>